--- a/data/edited_data/parental_number_weeks_full_paid_leave_2024.xlsx
+++ b/data/edited_data/parental_number_weeks_full_paid_leave_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/edited_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E3161961-0ACE-40F2-A7DF-8B733303E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B98FD6AC-1199-4246-B32E-FC7F8D9320DE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E3161961-0ACE-40F2-A7DF-8B733303E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D2CC74F-C141-4B3A-B047-CE399F6BDD93}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7F1ABA71-1A9A-46D4-8353-66E372998490}"/>
   </bookViews>
@@ -176,13 +176,13 @@
     <t>EU average</t>
   </si>
   <si>
-    <t>maternal_number_weeks_full_paid_leave</t>
-  </si>
-  <si>
-    <t>paternal_number_weeks_full_paid_leave</t>
-  </si>
-  <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>fathers_full_paid_leave</t>
+  </si>
+  <si>
+    <t>mothers_full_paid_leave</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,12 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -268,9 +274,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -295,6 +298,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{4277CAA2-3AE3-4C0B-B9F8-1275E78A9A83}"/>
@@ -311,6 +317,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,517 +643,519 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.92211379968069773</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>8.299024197126279</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>9.3879784693858053</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>51.199999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>6.6451319766982389</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>15.053618476098405</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2.0249647380248756</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>19.892300661773785</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2.8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1.6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>17.333300000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1.2509195134096571</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>52.550618272430469</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>5.4666724328737963</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>20.375779067984148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4.2857142857142856</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>82.142857142857153</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>10.669173067317688</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>39.393784117395597</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>7.9429554010575893</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>19.772955401057587</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>5.6549999999999994</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>42.6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>6.5277692382835015</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>53.104166145202143</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>2.2800000000000002</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>78.892983284273939</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>13.777267508610793</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>20.819586893853181</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>2.123036845515696</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>7.784468433557552</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>0</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5.9</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>25.16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>31.051428571428588</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>35.751428571428576</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>29.244121932904989</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>37.801997601154923</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>6.7995999999999999</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>44.675062692519461</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>9.8262827999999978</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>52.487482799999995</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>20.489473690106603</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>38.489473690106607</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>11.346681313556738</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>22.3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>12.668865323245749</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>14.724454585695655</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>39.83025789766765</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>8.2999999999999989</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>40.300000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>14.485714285714288</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>22.34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>21</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>68.88221858175632</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>10.714285714285714</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>52.142857142857146</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>16</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>10.905504883268163</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>34.429675069922446</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>1.1177335160151243</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>7.8241346121058699</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>1</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>14.399999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>0.40860693607150828</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>12.142014445179887</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>0</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>1.9285714285714286</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>73.140650504271989</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>7.8719740917572079</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>47.616057783408415</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>1.4399999999999997</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>15.839999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>6.3330000000000002</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>19.652174587667815</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>9.3661000000000012</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>88.680499999999995</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>39</v>
       </c>
     </row>
